--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc201_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc201_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4270" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="3">
+      <c r="C3" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -396,10 +420,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="3" t="s">
+      <c r="J9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -443,28 +467,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="3">
+      <c r="A11" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="3">
+      <c r="B11" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="3">
+      <c r="C11" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="3">
+      <c r="E11" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="3">
+      <c r="F11" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="3">
+      <c r="G11" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="3">
+      <c r="H11" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -489,28 +513,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="3">
+      <c r="B13" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="3">
+      <c r="C13" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="3">
+      <c r="D13" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="3">
+      <c r="E13" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="3">
+      <c r="F13" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="3">
+      <c r="G13" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="3">
+      <c r="H13" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="3">
+      <c r="I13" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -685,10 +709,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="3" t="s">
+      <c r="J19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -732,28 +756,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="3">
+      <c r="A21" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="3">
+      <c r="B21" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="3">
+      <c r="C21" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="3">
+      <c r="E21" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="3">
+      <c r="F21" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="3">
+      <c r="G21" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="3">
+      <c r="H21" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -778,28 +802,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="3">
+      <c r="B23" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="3">
+      <c r="C23" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="3">
+      <c r="D23" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="3">
+      <c r="E23" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="3">
+      <c r="F23" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="3">
+      <c r="G23" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="3">
+      <c r="H23" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="3">
+      <c r="I23" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -945,10 +969,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="3" t="s">
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -992,28 +1016,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="3">
+      <c r="A30" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="3">
+      <c r="B30" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="3">
+      <c r="C30" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="3">
+      <c r="E30" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="3">
+      <c r="F30" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="3">
+      <c r="G30" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="3">
+      <c r="H30" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1038,28 +1062,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="3">
+      <c r="B32" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="3">
+      <c r="C32" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="3">
+      <c r="D32" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="3">
+      <c r="E32" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="3">
+      <c r="F32" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="3">
+      <c r="G32" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="3">
+      <c r="H32" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="3">
+      <c r="I32" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1205,10 +1229,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="3" t="s">
+      <c r="J37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1252,28 +1276,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="3">
+      <c r="A39" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="3">
+      <c r="B39" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="3">
+      <c r="C39" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="3">
+      <c r="E39" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="3">
+      <c r="F39" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="3">
+      <c r="G39" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="3">
+      <c r="H39" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1298,28 +1322,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="3">
+      <c r="B41" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="3">
+      <c r="C41" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="3">
+      <c r="D41" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="3">
+      <c r="E41" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="3">
+      <c r="F41" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="3">
+      <c r="G41" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="3">
+      <c r="H41" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="3">
+      <c r="I41" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1465,10 +1489,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="3" t="s">
+      <c r="J46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1512,28 +1536,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="3">
+      <c r="A48" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="3">
+      <c r="B48" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="3">
+      <c r="C48" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="3">
+      <c r="E48" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="3">
+      <c r="F48" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="3">
+      <c r="G48" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="3">
+      <c r="H48" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1558,28 +1582,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="3">
+      <c r="B50" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="3">
+      <c r="C50" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="3">
+      <c r="D50" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="3">
+      <c r="E50" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="3">
+      <c r="F50" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="3">
+      <c r="G50" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="3">
+      <c r="H50" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="3">
+      <c r="I50" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1754,10 +1778,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="3" t="s">
+      <c r="J56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1801,28 +1825,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="3">
+      <c r="A58" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="3">
+      <c r="B58" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="3">
+      <c r="C58" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="3">
+      <c r="E58" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="3">
+      <c r="F58" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="3">
+      <c r="G58" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="3">
+      <c r="H58" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1847,28 +1871,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="3">
+      <c r="B60" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="3">
+      <c r="C60" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="3">
+      <c r="D60" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="3">
+      <c r="E60" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="3">
+      <c r="F60" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="3">
+      <c r="G60" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="3">
+      <c r="H60" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="3">
+      <c r="I60" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1985,10 +2009,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="3" t="s">
+      <c r="J64" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2032,28 +2056,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="3">
+      <c r="A66" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="3">
+      <c r="B66" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="3">
+      <c r="C66" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="3">
+      <c r="E66" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="3">
+      <c r="F66" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="3">
+      <c r="G66" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="3">
+      <c r="H66" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2078,28 +2102,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="3">
+      <c r="B68" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="3">
+      <c r="C68" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="3">
+      <c r="D68" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="3">
+      <c r="E68" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="3">
+      <c r="F68" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="3">
+      <c r="G68" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="3">
+      <c r="H68" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="3">
+      <c r="I68" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2245,10 +2269,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K73" s="3" t="s">
+      <c r="J73" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K73" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2292,28 +2316,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="3">
+      <c r="A75" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="3">
+      <c r="B75" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D75" t="s" s="3">
+      <c r="C75" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="3">
+      <c r="E75" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="3">
+      <c r="F75" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="3">
+      <c r="G75" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="3">
+      <c r="H75" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2338,28 +2362,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="3">
+      <c r="B77" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="3">
+      <c r="C77" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="3">
+      <c r="D77" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="3">
+      <c r="E77" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="3">
+      <c r="F77" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="3">
+      <c r="G77" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="3">
+      <c r="H77" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="3">
+      <c r="I77" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2476,10 +2500,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="3" t="s">
+      <c r="J81" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2523,28 +2547,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="3">
+      <c r="A83" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="3">
+      <c r="B83" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="3">
+      <c r="C83" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="3">
+      <c r="E83" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="3">
+      <c r="F83" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="3">
+      <c r="G83" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="3">
+      <c r="H83" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2569,28 +2593,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="3">
+      <c r="B85" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="3">
+      <c r="C85" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="3">
+      <c r="D85" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="3">
+      <c r="E85" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="3">
+      <c r="F85" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="3">
+      <c r="G85" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="3">
+      <c r="H85" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="3">
+      <c r="I85" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2678,10 +2702,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="3" t="s">
+      <c r="J88" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2725,28 +2749,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="3">
+      <c r="A90" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="3">
+      <c r="B90" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="3">
+      <c r="C90" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="3">
+      <c r="E90" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="3">
+      <c r="F90" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="3">
+      <c r="G90" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="3">
+      <c r="H90" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2771,28 +2795,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="3">
+      <c r="B92" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="3">
+      <c r="C92" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="3">
+      <c r="D92" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="3">
+      <c r="E92" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="3">
+      <c r="F92" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="3">
+      <c r="G92" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="3">
+      <c r="H92" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="3">
+      <c r="I92" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2938,10 +2962,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="3" t="s">
+      <c r="J97" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2985,28 +3009,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="3">
+      <c r="A99" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="3">
+      <c r="B99" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="3">
+      <c r="C99" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="3">
+      <c r="E99" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="3">
+      <c r="F99" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="3">
+      <c r="G99" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="3">
+      <c r="H99" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3031,28 +3055,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="3">
+      <c r="B101" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="3">
+      <c r="C101" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="3">
+      <c r="D101" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="3">
+      <c r="E101" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="3">
+      <c r="F101" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="3">
+      <c r="G101" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="3">
+      <c r="H101" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="3">
+      <c r="I101" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3227,10 +3251,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="3" t="s">
+      <c r="J107" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3274,28 +3298,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="3">
+      <c r="A109" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="3">
+      <c r="B109" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s" s="3">
+      <c r="C109" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="3">
+      <c r="E109" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="3">
+      <c r="F109" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="3">
+      <c r="G109" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="3">
+      <c r="H109" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3320,28 +3344,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="3">
+      <c r="B111" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="3">
+      <c r="C111" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="3">
+      <c r="D111" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="3">
+      <c r="E111" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="3">
+      <c r="F111" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="3">
+      <c r="G111" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="3">
+      <c r="H111" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="3">
+      <c r="I111" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3458,10 +3482,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="3" t="s">
+      <c r="J115" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3505,28 +3529,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="3">
+      <c r="A117" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="3">
+      <c r="B117" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="3">
+      <c r="C117" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="3">
+      <c r="E117" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="3">
+      <c r="F117" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="3">
+      <c r="G117" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="3">
+      <c r="H117" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3551,28 +3575,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="3">
+      <c r="B119" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="3">
+      <c r="C119" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="3">
+      <c r="D119" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="3">
+      <c r="E119" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="3">
+      <c r="F119" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="3">
+      <c r="G119" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="3">
+      <c r="H119" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="3">
+      <c r="I119" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3718,10 +3742,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="3" t="s">
+      <c r="J124" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3765,28 +3789,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="3">
+      <c r="A126" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="3">
+      <c r="B126" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="3">
+      <c r="C126" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="3">
+      <c r="E126" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="3">
+      <c r="F126" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="3">
+      <c r="G126" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="3">
+      <c r="H126" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3811,28 +3835,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="3">
+      <c r="B128" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="3">
+      <c r="C128" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="3">
+      <c r="D128" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="3">
+      <c r="E128" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="3">
+      <c r="F128" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="3">
+      <c r="G128" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="3">
+      <c r="H128" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="3">
+      <c r="I128" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3920,10 +3944,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="3" t="s">
+      <c r="J131" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3967,28 +3991,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="3">
+      <c r="A133" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="3">
+      <c r="B133" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="3">
+      <c r="C133" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="3">
+      <c r="E133" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="3">
+      <c r="F133" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="3">
+      <c r="G133" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="3">
+      <c r="H133" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4013,28 +4037,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="3">
+      <c r="B135" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="3">
+      <c r="C135" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="3">
+      <c r="D135" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="3">
+      <c r="E135" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="3">
+      <c r="F135" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="3">
+      <c r="G135" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="3">
+      <c r="H135" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="3">
+      <c r="I135" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4209,10 +4233,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="3" t="s">
+      <c r="J141" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4256,28 +4280,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="3">
+      <c r="A143" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="3">
+      <c r="B143" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="3">
+      <c r="C143" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="3">
+      <c r="E143" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="3">
+      <c r="F143" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="3">
+      <c r="G143" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="3">
+      <c r="H143" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4302,28 +4326,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="3">
+      <c r="B145" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="3">
+      <c r="C145" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="3">
+      <c r="D145" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="3">
+      <c r="E145" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="3">
+      <c r="F145" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="3">
+      <c r="G145" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="3">
+      <c r="H145" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="3">
+      <c r="I145" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4411,10 +4435,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="3" t="s">
+      <c r="J148" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4458,28 +4482,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="3">
+      <c r="A150" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="3">
+      <c r="B150" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s" s="3">
+      <c r="C150" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="3">
+      <c r="E150" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="3">
+      <c r="F150" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="3">
+      <c r="G150" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="3">
+      <c r="H150" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4504,28 +4528,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="3">
+      <c r="B152" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="3">
+      <c r="C152" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="3">
+      <c r="D152" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="3">
+      <c r="E152" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="3">
+      <c r="F152" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="3">
+      <c r="G152" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="3">
+      <c r="H152" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="3">
+      <c r="I152" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4671,10 +4695,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="3" t="s">
+      <c r="J157" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4718,28 +4742,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="3">
+      <c r="A159" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="3">
+      <c r="B159" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="3">
+      <c r="C159" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="3">
+      <c r="E159" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="3">
+      <c r="F159" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="3">
+      <c r="G159" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="3">
+      <c r="H159" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4764,28 +4788,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="3">
+      <c r="B161" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="3">
+      <c r="C161" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="3">
+      <c r="D161" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="3">
+      <c r="E161" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="3">
+      <c r="F161" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="3">
+      <c r="G161" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="3">
+      <c r="H161" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="3">
+      <c r="I161" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4873,10 +4897,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="3" t="s">
+      <c r="J164" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4920,28 +4944,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="3">
+      <c r="A166" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="3">
+      <c r="B166" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="3">
+      <c r="C166" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="3">
+      <c r="E166" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="3">
+      <c r="F166" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="3">
+      <c r="G166" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="3">
+      <c r="H166" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4966,28 +4990,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="3">
+      <c r="B168" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="3">
+      <c r="C168" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="3">
+      <c r="D168" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="3">
+      <c r="E168" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="3">
+      <c r="F168" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="3">
+      <c r="G168" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="3">
+      <c r="H168" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="3">
+      <c r="I168" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5104,10 +5128,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="3" t="s">
+      <c r="J172" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5151,28 +5175,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="3">
+      <c r="A174" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="3">
+      <c r="B174" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="3">
+      <c r="C174" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="3">
+      <c r="E174" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="3">
+      <c r="F174" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="3">
+      <c r="G174" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="3">
+      <c r="H174" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5197,28 +5221,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="3">
+      <c r="B176" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="3">
+      <c r="C176" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="3">
+      <c r="D176" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="3">
+      <c r="E176" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="3">
+      <c r="F176" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="3">
+      <c r="G176" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="3">
+      <c r="H176" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="3">
+      <c r="I176" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5393,10 +5417,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="3" t="s">
+      <c r="J182" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5440,28 +5464,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="3">
+      <c r="A184" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="3">
+      <c r="B184" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="3">
+      <c r="C184" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="3">
+      <c r="E184" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="3">
+      <c r="F184" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="3">
+      <c r="G184" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="3">
+      <c r="H184" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5486,28 +5510,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="3">
+      <c r="B186" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="3">
+      <c r="C186" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="3">
+      <c r="D186" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="3">
+      <c r="E186" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="3">
+      <c r="F186" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="3">
+      <c r="G186" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="3">
+      <c r="H186" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="3">
+      <c r="I186" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5624,10 +5648,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="3" t="s">
+      <c r="J190" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5671,28 +5695,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="3">
+      <c r="A192" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="3">
+      <c r="B192" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="3">
+      <c r="C192" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="3">
+      <c r="E192" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="3">
+      <c r="F192" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="3">
+      <c r="G192" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="3">
+      <c r="H192" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5717,28 +5741,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="3">
+      <c r="B194" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="3">
+      <c r="C194" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="3">
+      <c r="D194" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="3">
+      <c r="E194" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="3">
+      <c r="F194" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="3">
+      <c r="G194" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="3">
+      <c r="H194" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="3">
+      <c r="I194" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5797,10 +5821,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="3" t="s">
+      <c r="J196" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5844,28 +5868,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="3">
+      <c r="A198" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="3">
+      <c r="B198" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="3">
+      <c r="C198" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="3">
+      <c r="E198" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="3">
+      <c r="F198" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="3">
+      <c r="G198" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="3">
+      <c r="H198" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5890,28 +5914,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="3">
+      <c r="B200" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="3">
+      <c r="C200" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="3">
+      <c r="D200" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="3">
+      <c r="E200" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="3">
+      <c r="F200" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="3">
+      <c r="G200" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="3">
+      <c r="H200" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="3">
+      <c r="I200" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5970,10 +5994,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="3" t="s">
+      <c r="J202" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6017,28 +6041,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="3">
+      <c r="A204" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="3">
+      <c r="B204" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="3">
+      <c r="C204" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="3">
+      <c r="E204" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="3">
+      <c r="F204" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="3">
+      <c r="G204" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="3">
+      <c r="H204" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6063,28 +6087,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="3">
+      <c r="B206" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="3">
+      <c r="C206" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="3">
+      <c r="D206" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="3">
+      <c r="E206" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="3">
+      <c r="F206" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="3">
+      <c r="G206" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="3">
+      <c r="H206" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="3">
+      <c r="I206" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6201,10 +6225,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="3" t="s">
+      <c r="J210" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6248,28 +6272,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="3">
+      <c r="A212" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="3">
+      <c r="B212" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="3">
+      <c r="C212" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="3">
+      <c r="E212" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="3">
+      <c r="F212" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="3">
+      <c r="G212" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="3">
+      <c r="H212" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6294,28 +6318,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="3">
+      <c r="B214" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="3">
+      <c r="C214" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="3">
+      <c r="D214" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="3">
+      <c r="E214" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="3">
+      <c r="F214" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="3">
+      <c r="G214" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="3">
+      <c r="H214" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="3">
+      <c r="I214" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6432,10 +6456,10 @@
       <c r="I218">
         <f>((C218-C217)^2+(D218- D217)^2)^.5</f>
       </c>
-      <c r="J218" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K218" s="3" t="s">
+      <c r="J218" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L218" t="n">
@@ -6479,28 +6503,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="3">
+      <c r="A220" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B220" t="s" s="3">
+      <c r="B220" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C220" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D220" t="s" s="3">
+      <c r="C220" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E220" t="s" s="3">
+      <c r="E220" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F220" t="s" s="3">
+      <c r="F220" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G220" t="s" s="3">
+      <c r="G220" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H220" t="s" s="3">
+      <c r="H220" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6525,28 +6549,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="s" s="3">
+      <c r="B222" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C222" t="s" s="3">
+      <c r="C222" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D222" t="s" s="3">
+      <c r="D222" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E222" t="s" s="3">
+      <c r="E222" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F222" t="s" s="3">
+      <c r="F222" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G222" t="s" s="3">
+      <c r="G222" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H222" t="s" s="3">
+      <c r="H222" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I222" t="s" s="3">
+      <c r="I222" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6605,10 +6629,10 @@
       <c r="I224">
         <f>((C224-C223)^2+(D224- D223)^2)^.5</f>
       </c>
-      <c r="J224" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="3" t="s">
+      <c r="J224" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L224" t="n">
@@ -6652,28 +6676,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="3">
+      <c r="A226" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B226" t="s" s="3">
+      <c r="B226" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C226" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s" s="3">
+      <c r="C226" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E226" t="s" s="3">
+      <c r="E226" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F226" t="s" s="3">
+      <c r="F226" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G226" t="s" s="3">
+      <c r="G226" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H226" t="s" s="3">
+      <c r="H226" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6698,28 +6722,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="3">
+      <c r="B228" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C228" t="s" s="3">
+      <c r="C228" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D228" t="s" s="3">
+      <c r="D228" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E228" t="s" s="3">
+      <c r="E228" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F228" t="s" s="3">
+      <c r="F228" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G228" t="s" s="3">
+      <c r="G228" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H228" t="s" s="3">
+      <c r="H228" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I228" t="s" s="3">
+      <c r="I228" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6807,10 +6831,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="3" t="s">
+      <c r="J231" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
@@ -6854,28 +6878,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="3">
+      <c r="A233" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B233" t="s" s="3">
+      <c r="B233" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C233" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D233" t="s" s="3">
+      <c r="C233" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E233" t="s" s="3">
+      <c r="E233" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F233" t="s" s="3">
+      <c r="F233" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G233" t="s" s="3">
+      <c r="G233" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H233" t="s" s="3">
+      <c r="H233" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6900,28 +6924,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s" s="3">
+      <c r="B235" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C235" t="s" s="3">
+      <c r="C235" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D235" t="s" s="3">
+      <c r="D235" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E235" t="s" s="3">
+      <c r="E235" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F235" t="s" s="3">
+      <c r="F235" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G235" t="s" s="3">
+      <c r="G235" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H235" t="s" s="3">
+      <c r="H235" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I235" t="s" s="3">
+      <c r="I235" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7038,10 +7062,10 @@
       <c r="I239">
         <f>((C239-C238)^2+(D239- D238)^2)^.5</f>
       </c>
-      <c r="J239" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K239" s="3" t="s">
+      <c r="J239" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K239" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L239" t="n">
@@ -7085,28 +7109,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="s" s="3">
+      <c r="A241" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B241" t="s" s="3">
+      <c r="B241" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C241" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D241" t="s" s="3">
+      <c r="C241" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D241" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E241" t="s" s="3">
+      <c r="E241" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F241" t="s" s="3">
+      <c r="F241" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G241" t="s" s="3">
+      <c r="G241" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H241" t="s" s="3">
+      <c r="H241" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7131,28 +7155,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="B243" t="s" s="3">
+      <c r="B243" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C243" t="s" s="3">
+      <c r="C243" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D243" t="s" s="3">
+      <c r="D243" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E243" t="s" s="3">
+      <c r="E243" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F243" t="s" s="3">
+      <c r="F243" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G243" t="s" s="3">
+      <c r="G243" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H243" t="s" s="3">
+      <c r="H243" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I243" t="s" s="3">
+      <c r="I243" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7211,10 +7235,10 @@
       <c r="I245">
         <f>((C245-C244)^2+(D245- D244)^2)^.5</f>
       </c>
-      <c r="J245" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K245" s="3" t="s">
+      <c r="J245" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K245" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L245" t="n">
@@ -7258,28 +7282,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="s" s="3">
+      <c r="A247" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B247" t="s" s="3">
+      <c r="B247" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C247" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D247" t="s" s="3">
+      <c r="C247" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D247" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E247" t="s" s="3">
+      <c r="E247" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F247" t="s" s="3">
+      <c r="F247" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G247" t="s" s="3">
+      <c r="G247" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H247" t="s" s="3">
+      <c r="H247" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7304,28 +7328,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="B249" t="s" s="3">
+      <c r="B249" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C249" t="s" s="3">
+      <c r="C249" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D249" t="s" s="3">
+      <c r="D249" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E249" t="s" s="3">
+      <c r="E249" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F249" t="s" s="3">
+      <c r="F249" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G249" t="s" s="3">
+      <c r="G249" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H249" t="s" s="3">
+      <c r="H249" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I249" t="s" s="3">
+      <c r="I249" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7384,10 +7408,10 @@
       <c r="I251">
         <f>((C251-C250)^2+(D251- D250)^2)^.5</f>
       </c>
-      <c r="J251" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K251" s="3" t="s">
+      <c r="J251" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K251" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L251" t="n">
@@ -7431,28 +7455,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="s" s="3">
+      <c r="A253" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B253" t="s" s="3">
+      <c r="B253" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C253" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D253" t="s" s="3">
+      <c r="C253" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D253" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E253" t="s" s="3">
+      <c r="E253" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F253" t="s" s="3">
+      <c r="F253" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G253" t="s" s="3">
+      <c r="G253" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H253" t="s" s="3">
+      <c r="H253" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7477,28 +7501,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="B255" t="s" s="3">
+      <c r="B255" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C255" t="s" s="3">
+      <c r="C255" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D255" t="s" s="3">
+      <c r="D255" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E255" t="s" s="3">
+      <c r="E255" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F255" t="s" s="3">
+      <c r="F255" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G255" t="s" s="3">
+      <c r="G255" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H255" t="s" s="3">
+      <c r="H255" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I255" t="s" s="3">
+      <c r="I255" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7586,10 +7610,10 @@
       <c r="I258">
         <f>((C258-C257)^2+(D258- D257)^2)^.5</f>
       </c>
-      <c r="J258" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K258" s="3" t="s">
+      <c r="J258" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K258" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L258" t="n">
@@ -7633,28 +7657,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="s" s="3">
+      <c r="A260" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B260" t="s" s="3">
+      <c r="B260" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C260" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D260" t="s" s="3">
+      <c r="C260" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D260" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E260" t="s" s="3">
+      <c r="E260" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F260" t="s" s="3">
+      <c r="F260" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G260" t="s" s="3">
+      <c r="G260" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H260" t="s" s="3">
+      <c r="H260" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7679,28 +7703,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="B262" t="s" s="3">
+      <c r="B262" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C262" t="s" s="3">
+      <c r="C262" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D262" t="s" s="3">
+      <c r="D262" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E262" t="s" s="3">
+      <c r="E262" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F262" t="s" s="3">
+      <c r="F262" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G262" t="s" s="3">
+      <c r="G262" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H262" t="s" s="3">
+      <c r="H262" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I262" t="s" s="3">
+      <c r="I262" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7817,10 +7841,10 @@
       <c r="I266">
         <f>((C266-C265)^2+(D266- D265)^2)^.5</f>
       </c>
-      <c r="J266" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K266" s="3" t="s">
+      <c r="J266" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K266" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L266" t="n">
